--- a/biology/Histoire de la zoologie et de la botanique/Jean-Philippe_Castillon/Jean-Philippe_Castillon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Philippe_Castillon/Jean-Philippe_Castillon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Philippe Castillon, né en 1965, est un professeur agrégé de mathématiques[1] enseignant à l'université de La Réunion[2], et un botaniste spécialiste des Aloe.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Philippe Castillon, né en 1965, est un professeur agrégé de mathématiques enseignant à l'université de La Réunion, et un botaniste spécialiste des Aloe.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jean-Bernard Castillon et Jean-Philippe Castillon, Les Aloe de Madagascar, Étang-Salé, Jean-Philippe Castillon, 2010, 399 p. (ISBN 9782746618725).
 Jean-Philippe Castillon, « Nouvelles remarques sur l'identité de l'Aloe deltoideodonta Baker (Xanthorrhoeaceae) et nouveau nom, Aloe horombensis nom. nov., pour les Aloe L. affiliés du sud-Betsileo », Adansonia, sér. 3, vol. 36, no 2,‎ 2014, p. 221–235.
